--- a/models/calculation engines/cbix2/outputs/capesize/workings_for_viu_adjustmnet_of_specific_index/actual_price_determination_from_CBIX_price/specific_index_ViU_calculation_index_bauxite_details.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/workings_for_viu_adjustmnet_of_specific_index/actual_price_determination_from_CBIX_price/specific_index_ViU_calculation_index_bauxite_details.xlsx
@@ -488,7 +488,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41.07446951978631</v>
+        <v>41.07446951978632</v>
       </c>
       <c r="B2" t="n">
         <v>0.5</v>
@@ -565,7 +565,7 @@
         <v>0.3725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E4" t="n">
         <v>0.0675</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55.10712535954807</v>
+        <v>55.10712535954808</v>
       </c>
       <c r="B12" t="n">
         <v>0.5</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>45.75438540963476</v>
+        <v>45.75438540963478</v>
       </c>
       <c r="B13" t="n">
         <v>0.5</v>
@@ -1109,7 +1109,7 @@
         <v>0.3725</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E20" t="n">
         <v>0.0675</v>
@@ -1313,7 +1313,7 @@
         <v>0.3725</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="E26" t="n">
         <v>0.0675</v>
